--- a/INPUT.xlsx
+++ b/INPUT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyracutler/Documents/Documents /PhD/h2o/PhD thesis/plag-saturated-liquid-hygrothermobarometry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyracutler/Documents/Documents /PhD/h2o/PhD thesis/Plag-saturated-liquid-P-T-H2O-An/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41086B5F-2793-214E-BC61-A411AC23D1FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D14ACD-57E4-8645-9A66-0999A79B97EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="1000" windowWidth="27020" windowHeight="16440" xr2:uid="{496124CD-86E1-604F-A73B-76B1B574C910}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Sample</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Ref</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Matrix</t>
   </si>
 </sst>
 </file>
@@ -418,15 +424,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FFDA36-7F41-1F46-8594-C4D698C605C3}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -434,193 +440,211 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
         <v>77.34</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.02</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>12.46</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.89</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.04</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.84</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>3.08</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>5.19</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
         <v>77.069999999999993</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>12.65</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.83</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.05</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.79</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2.84</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>5.53</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
         <v>76.790000000000006</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.06</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>12.76</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.78</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.03</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.79</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>3.01</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>5.57</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
         <v>77.12</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.02</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>12.41</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.93</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.05</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.7</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>3.18</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>5.25</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
         <v>77.55</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.04</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>12.34</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.89</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.04</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.71</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2.97</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>5.15</v>
       </c>
     </row>
